--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17D74584-E10F-4304-AA01-A7D6EB324B8F}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FED8260-79CD-4A88-A6D1-953C691CDCD8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Blade 4</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1289,11 +1292,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FED8260-79CD-4A88-A6D1-953C691CDCD8}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37AD6A87-D1F8-488E-9E39-3EA2BA8EFF45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
     <t>Blade 4</t>
   </si>
   <si>
-    <t>3 hours</t>
+    <t>5 hours 30 minutes</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37AD6A87-D1F8-488E-9E39-3EA2BA8EFF45}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6E7574A-9509-4467-B213-3007E59D9E5F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
     <t>Blade 4</t>
   </si>
   <si>
-    <t>5 hours 30 minutes</t>
+    <t>6 hours 30 minutes</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6E7574A-9509-4467-B213-3007E59D9E5F}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D0E1811-ACE8-4BED-98AA-6DEF4C358625}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -431,7 +431,25 @@
     <t>Blade 4</t>
   </si>
   <si>
-    <t>6 hours 30 minutes</t>
+    <t>Back_Motor</t>
+  </si>
+  <si>
+    <t>6 hours 50 minutes</t>
+  </si>
+  <si>
+    <t>Front_Motor</t>
+  </si>
+  <si>
+    <t>35 minutes</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Hinge</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1293,13 +1311,13 @@
     </row>
     <row r="19" spans="1:8" ht="13.2">
       <c r="A19" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1308,11 +1326,15 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="13.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1320,11 +1342,15 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="13.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1332,11 +1358,15 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="13.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D0E1811-ACE8-4BED-98AA-6DEF4C358625}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E23DC06C-FAAF-4156-8206-5B674E85ED24}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Hinge</t>
+  </si>
+  <si>
+    <t>Body</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1374,11 +1377,15 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="13.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E23DC06C-FAAF-4156-8206-5B674E85ED24}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BD0255C-2ABF-4172-BEEF-1EAE75005B55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Body</t>
+  </si>
+  <si>
+    <t>1 hour 10 minutes</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1384,7 +1387,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BD0255C-2ABF-4172-BEEF-1EAE75005B55}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6C6E981-1641-473C-9818-869CB8DAE4E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,9 +434,6 @@
     <t>Back_Motor</t>
   </si>
   <si>
-    <t>6 hours 50 minutes</t>
-  </si>
-  <si>
     <t>Front_Motor</t>
   </si>
   <si>
@@ -455,7 +452,10 @@
     <t>Body</t>
   </si>
   <si>
-    <t>1 hour 10 minutes</t>
+    <t>1 hour 40 minutes</t>
+  </si>
+  <si>
+    <t>7 hours 40 minutes</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="20" spans="1:8" ht="13.2">
       <c r="A20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="21" spans="1:8" ht="13.2">
       <c r="A21" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>31</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="22" spans="1:8" ht="13.2">
       <c r="A22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="23" spans="1:8" ht="13.2">
       <c r="A23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6C6E981-1641-473C-9818-869CB8DAE4E3}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51DCF6E4-F2E8-468F-B181-48D380568891}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,10 +452,10 @@
     <t>Body</t>
   </si>
   <si>
-    <t>1 hour 40 minutes</t>
-  </si>
-  <si>
     <t>7 hours 40 minutes</t>
+  </si>
+  <si>
+    <t>3 hours 55 minutes</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1387,7 +1387,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thurg\OneDrive\Documents\Downloads\DGM-1660-Fall-2020-Devon-Thurgood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{EF59704E-0243-4690-AB23-71616A579531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51DCF6E4-F2E8-468F-B181-48D380568891}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
     <t>7 hours 40 minutes</t>
   </si>
   <si>
-    <t>3 hours 55 minutes</t>
+    <t>5 hours 55 minutes</t>
   </si>
 </sst>
 </file>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thurg\OneDrive\Documents\Downloads\DGM-1660-Fall-2020-Devon-Thurgood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A57E9778-1C14-4B69-B5C9-8453BD39B0E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
     <t>7 hours 40 minutes</t>
   </si>
   <si>
-    <t>5 hours 55 minutes</t>
+    <t>8 hours 15 minutes</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A57E9778-1C14-4B69-B5C9-8453BD39B0E3}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B274579B-8162-48BF-8BC1-DEC2B06B93C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -431,15 +431,6 @@
     <t>Blade 4</t>
   </si>
   <si>
-    <t>Back_Motor</t>
-  </si>
-  <si>
-    <t>Front_Motor</t>
-  </si>
-  <si>
-    <t>35 minutes</t>
-  </si>
-  <si>
     <t>20 minutes</t>
   </si>
   <si>
@@ -452,10 +443,37 @@
     <t>Body</t>
   </si>
   <si>
-    <t>7 hours 40 minutes</t>
-  </si>
-  <si>
-    <t>8 hours 15 minutes</t>
+    <t>Motor_Front</t>
+  </si>
+  <si>
+    <t>Motor_Back</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>3 hours 15 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 30 minutes</t>
+  </si>
+  <si>
+    <t>3 hours 10 minutes</t>
+  </si>
+  <si>
+    <t>25 minutes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>1 hour 3 minutes</t>
+  </si>
+  <si>
+    <t>7 hours 25 minutes</t>
+  </si>
+  <si>
+    <t>13 hours 28 minutes</t>
   </si>
 </sst>
 </file>
@@ -918,9 +936,9 @@
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="13" t="str">
         <f>TotalModelTime</f>
-        <v>0</v>
+        <v>13 hours 28 minutes</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2">
@@ -1037,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1308,7 +1326,9 @@
       <c r="G17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="13.2">
       <c r="A18" s="29" t="s">
@@ -1317,13 +1337,13 @@
     </row>
     <row r="19" spans="1:8" ht="13.2">
       <c r="A19" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1333,13 +1353,13 @@
     </row>
     <row r="20" spans="1:8" ht="13.2">
       <c r="A20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1348,15 +1368,11 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="13.2">
-      <c r="A21" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1364,15 +1380,11 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="13.2">
-      <c r="A22" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1381,13 +1393,13 @@
     </row>
     <row r="23" spans="1:8" ht="13.2">
       <c r="A23" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1539,7 +1551,9 @@
       <c r="G36" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
@@ -1549,11 +1563,15 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="B38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="D38" s="33"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -1561,11 +1579,15 @@
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:11" ht="13.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="D39" s="34"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -1573,11 +1595,15 @@
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:11" ht="13.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="B40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D40" s="34"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -1585,11 +1611,15 @@
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="13.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="B41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D41" s="34"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -1597,11 +1627,15 @@
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="13.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="B42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D42" s="34"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -1852,7 +1886,9 @@
       <c r="G63" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H63" s="16"/>
+      <c r="H63" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
     </row>
@@ -1860,7 +1896,9 @@
       <c r="G64" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="20"/>
+      <c r="H64" s="20" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B274579B-8162-48BF-8BC1-DEC2B06B93C1}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B067C63-C0F9-4C81-BDD3-A1542264DF68}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,9 +452,6 @@
     <t>5 hours</t>
   </si>
   <si>
-    <t>3 hours 15 minutes</t>
-  </si>
-  <si>
     <t>4 hours 30 minutes</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>13 hours 28 minutes</t>
+  </si>
+  <si>
+    <t>3 hours 45 minutes</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1327,7 +1327,7 @@
         <v>98</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.2">
@@ -1343,7 +1343,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1359,7 +1359,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1570,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="7"/>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="7"/>
@@ -1634,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="7"/>
@@ -1887,7 +1887,7 @@
         <v>96</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -1897,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B067C63-C0F9-4C81-BDD3-A1542264DF68}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A97E321B-AFFA-41E9-8FA8-264410C4BAB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
   <si>
     <t>Model To Animate</t>
   </si>
@@ -474,13 +474,16 @@
   </si>
   <si>
     <t>3 hours 45 minutes</t>
+  </si>
+  <si>
+    <t>1 hour 20 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -530,12 +533,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -600,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,9 +647,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,8 +1049,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1289,7 +1283,7 @@
         <v>120</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="7"/>
@@ -1303,7 +1297,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1572,11 +1566,12 @@
       <c r="C38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="33" t="s">
+        <v>137</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:11" ht="13.2">
       <c r="A39" s="7" t="s">
@@ -1588,11 +1583,10 @@
       <c r="C39" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:11" ht="13.2">
       <c r="A40" s="7" t="s">
@@ -1604,11 +1598,10 @@
       <c r="C40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="13.2">
       <c r="A41" s="7" t="s">
@@ -1620,11 +1613,10 @@
       <c r="C41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:11" ht="13.2">
       <c r="A42" s="7" t="s">
@@ -1636,11 +1628,10 @@
       <c r="C42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:11" ht="13.2">
       <c r="A43" s="7"/>
@@ -1648,11 +1639,10 @@
         <v>14</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="34"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:11" ht="13.2">
       <c r="A44" s="7"/>
@@ -1660,11 +1650,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:11" ht="13.2">
       <c r="A45" s="7"/>
@@ -1672,11 +1661,10 @@
         <v>14</v>
       </c>
       <c r="C45" s="7"/>
-      <c r="D45" s="34"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="13.2">
       <c r="A46" s="7"/>
@@ -1684,11 +1672,10 @@
         <v>14</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="34"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="13.2">
       <c r="A47" s="7"/>
@@ -1696,11 +1683,10 @@
         <v>14</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="33"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:11" ht="13.2">
       <c r="A48" s="7"/>
@@ -1708,11 +1694,10 @@
         <v>14</v>
       </c>
       <c r="C48" s="7"/>
-      <c r="D48" s="33"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:11" ht="13.2">
       <c r="A49" s="7"/>
@@ -1720,23 +1705,21 @@
         <v>14</v>
       </c>
       <c r="C49" s="7"/>
-      <c r="D49" s="33"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" ht="13.2">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.6">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="33"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="13.2">
       <c r="A51" s="7"/>
@@ -1744,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="33"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -1756,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="7"/>
-      <c r="D52" s="33"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -1768,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="33"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -1780,19 +1763,17 @@
         <v>14</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="33"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="13.2">
+    <row r="55" spans="1:11" ht="15.6">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="33"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -1804,7 +1785,6 @@
         <v>14</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="33"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -1816,7 +1796,6 @@
         <v>14</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="33"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -1828,7 +1807,6 @@
         <v>14</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="33"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -1840,7 +1818,6 @@
         <v>14</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="33"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -1852,7 +1829,6 @@
         <v>14</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -1864,7 +1840,6 @@
         <v>14</v>
       </c>
       <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -1876,7 +1851,6 @@
         <v>14</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -1901,11 +1875,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="D53:D59"/>
+  <mergeCells count="2">
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D38:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A97E321B-AFFA-41E9-8FA8-264410C4BAB2}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{183EE638-3AA1-433F-A839-AFBD9E8448C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
     <t>3 hours 45 minutes</t>
   </si>
   <si>
-    <t>1 hour 20 minutes</t>
+    <t>1 hour 50 minutes</t>
   </si>
 </sst>
 </file>
@@ -648,10 +648,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,8 +1049,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1283,7 +1283,7 @@
         <v>120</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="7"/>
@@ -1297,7 +1297,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1566,7 +1566,7 @@
       <c r="C38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="34" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="7"/>
@@ -1583,7 +1583,7 @@
       <c r="C39" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="11"/>
@@ -1598,7 +1598,7 @@
       <c r="C40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="11"/>
@@ -1613,7 +1613,7 @@
       <c r="C41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="11"/>
@@ -1710,7 +1710,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6">
+    <row r="50" spans="1:11" ht="13.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
         <v>14</v>
@@ -1768,7 +1768,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6">
+    <row r="55" spans="1:11" ht="13.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>14</v>

--- a/DevonThurgood_Drone_Timetable.xlsx
+++ b/DevonThurgood_Drone_Timetable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa7f6f3a4ff12958/Documents/Downloads/DGM-1660-Fall-2020-Devon-Thurgood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{183EE638-3AA1-433F-A839-AFBD9E8448C7}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{5037DE3C-66CE-4D02-AD33-613F11C43316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88AB8E2C-9873-46CC-B617-FB2C790EC204}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
     <t>3 hours 45 minutes</t>
   </si>
   <si>
-    <t>1 hour 50 minutes</t>
+    <t>2 hour 55 minutes</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D38" sqref="D38:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
